--- a/energy_data.xlsx
+++ b/energy_data.xlsx
@@ -390,502 +390,502 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>359.4252511845388</v>
+        <v>419.4981658355267</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>283.0658192057997</v>
+        <v>412.1018445787388</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>242.6174406269264</v>
+        <v>296.6716301647885</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>232.2757655760057</v>
+        <v>284.0928315975009</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>111.0125970272158</v>
+        <v>394.2533158115384</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>412.5806114377818</v>
+        <v>496.7634969508741</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>497.450489925075</v>
+        <v>191.3161304433006</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>201.3479137021403</v>
+        <v>360.0605920909687</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>268.2890875151228</v>
+        <v>307.3588056739154</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>372.789051725695</v>
+        <v>463.8751206418385</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>336.4500547607695</v>
+        <v>424.534296590447</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>259.4751742750851</v>
+        <v>209.3979537333763</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>347.7243609864336</v>
+        <v>362.8693985396707</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>40.44923370713366</v>
+        <v>476.470860523832</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>389.2367833677971</v>
+        <v>119.5335211065804</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>30.20810510380079</v>
+        <v>171.1937600882921</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>147.0245180232867</v>
+        <v>416.2349949418672</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>459.7775112007451</v>
+        <v>463.3084335349978</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>352.5677181847642</v>
+        <v>178.6179065853805</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>495.97212894007</v>
+        <v>268.6833068223075</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>294.2666140146031</v>
+        <v>322.3598628267143</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>69.55945851583967</v>
+        <v>385.9949470520202</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>84.05086936443928</v>
+        <v>242.4195201958483</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>0.9298289427299156</v>
+        <v>45.18712879504289</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>182.1635606882738</v>
+        <v>438.6433951040644</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>423.044344022971</v>
+        <v>37.99545558019063</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>206.4840694138331</v>
+        <v>300.7472372603622</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>187.8468475108948</v>
+        <v>458.8050104960806</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>402.2693339736109</v>
+        <v>247.1998387874693</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>414.3232808592242</v>
+        <v>1.202190666210301</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>188.2129419691729</v>
+        <v>406.954417661193</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>472.5589904304443</v>
+        <v>145.6899731481819</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>412.4695448491905</v>
+        <v>109.0090642297931</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>441.3822977845728</v>
+        <v>47.56218877015533</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>331.78409152184</v>
+        <v>0.5127559241533408</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>309.2964630060339</v>
+        <v>499.8810285786961</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>2.182824475173706</v>
+        <v>284.5963937178027</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>387.8100321472342</v>
+        <v>68.06627027294032</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>368.9318912679239</v>
+        <v>392.4026334501835</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>78.19167874921473</v>
+        <v>239.7150865741982</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>151.4246273051331</v>
+        <v>183.9227889274523</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>68.92485476153148</v>
+        <v>274.1845373370174</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>376.6152357173501</v>
+        <v>39.26301815448097</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>364.6561355899595</v>
+        <v>254.6449695604593</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>347.5352777089207</v>
+        <v>92.30391416704575</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>361.8861733557635</v>
+        <v>266.839894545767</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>147.9034758388136</v>
+        <v>412.3740587108957</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>388.8938026815902</v>
+        <v>29.24926321831267</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>487.3123725922167</v>
+        <v>438.5964573497988</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>231.2534239848107</v>
+        <v>73.97161431896093</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>194.3536941248324</v>
+        <v>246.6551284142497</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>394.8843987862156</v>
+        <v>183.7578555103306</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>282.5703743165714</v>
+        <v>324.62767364868</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>134.9054648755036</v>
+        <v>357.1992067444695</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>305.256481162791</v>
+        <v>379.238856249772</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>222.1448936511592</v>
+        <v>33.44900755955877</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>332.7110046874521</v>
+        <v>48.50074043127328</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>247.6131009916921</v>
+        <v>108.1713493292204</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>476.7925754052553</v>
+        <v>189.6853237768934</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>405.4396390274848</v>
+        <v>191.3355295649403</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>89.68417277069196</v>
+        <v>105.9818439158329</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>208.9732408879509</v>
+        <v>56.61332311038137</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>428.1793215300593</v>
+        <v>408.5631065740926</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>98.35884738362205</v>
+        <v>175.3207589298608</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>407.9415100071016</v>
+        <v>101.4350333269244</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>368.5550407908671</v>
+        <v>208.8795349081537</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>334.0719427016119</v>
+        <v>179.8726733212451</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>197.3265347977358</v>
+        <v>11.5864797272715</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>36.04255667011886</v>
+        <v>449.1039677076157</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>342.952107987729</v>
+        <v>395.5566306988915</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>103.13320221282</v>
+        <v>155.7098822276161</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>5.426673574404406</v>
+        <v>446.6291259212909</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>209.3234372397628</v>
+        <v>312.2746358987474</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>105.1743163019692</v>
+        <v>14.32229258827239</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>382.0138688797976</v>
+        <v>321.0423217225925</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>419.1411320323744</v>
+        <v>422.242219152224</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>362.0157912283042</v>
+        <v>83.26499750850846</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>285.6968583987787</v>
+        <v>325.0376358331777</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>111.7215973627388</v>
+        <v>258.4348502396089</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>398.2339191973128</v>
+        <v>383.4112335998732</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>261.0507890946461</v>
+        <v>195.5802548895253</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>461.6397870708786</v>
+        <v>72.42008579247688</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>1.95759113340338</v>
+        <v>394.0060332347871</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>148.4527213152473</v>
+        <v>281.1244886136123</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>101.632525027854</v>
+        <v>265.6517361342726</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>188.9611644112876</v>
+        <v>388.7746542008215</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>493.6081764457185</v>
+        <v>303.0328510235031</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>219.7516485252423</v>
+        <v>475.5912149107733</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>299.6511204225289</v>
+        <v>252.7051796136826</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>401.0255416791735</v>
+        <v>309.9864521141463</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>88.14651039457489</v>
+        <v>111.2580751169254</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>180.8508917523392</v>
+        <v>73.19343823229929</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>42.75861092865069</v>
+        <v>362.0157436807563</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>162.6032423515726</v>
+        <v>316.9131483910285</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>186.7746860296431</v>
+        <v>497.1056107080079</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>10.24905233096679</v>
+        <v>169.9921305203835</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>198.1159409412994</v>
+        <v>252.4913091774413</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>25.70214629744882</v>
+        <v>252.768662902601</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>42.32889474939727</v>
+        <v>105.5330345114611</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>49.46996830994166</v>
+        <v>128.870385118665</v>
       </c>
     </row>
   </sheetData>
